--- a/mappings/Mods and Synergy.xlsx
+++ b/mappings/Mods and Synergy.xlsx
@@ -4,7 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Mod List" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Mod Effect Mapping" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Well Effect Mapping" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CWL Effect Mapping" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Warmind Effect Mapping" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Weapon Effect Mapping" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -1118,30 +1121,51 @@
     <t>Reduces flinching from incoming fire while aiming Sniper Rifles.</t>
   </si>
   <si>
-    <t>Mod ID</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Value Modifier</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>stack value</t>
-  </si>
-  <si>
-    <t>stack constraint mod ID</t>
-  </si>
-  <si>
-    <t>requires mod</t>
+    <t>mod_id</t>
+  </si>
+  <si>
+    <t>impact_id</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>value_modifier</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>stack_value</t>
+  </si>
+  <si>
+    <t>stack_constraint_mod_id</t>
+  </si>
+  <si>
+    <t>requires_mod</t>
   </si>
   <si>
     <t>counts_as_copy</t>
   </si>
   <si>
+    <t>cwl_subclass_match</t>
+  </si>
+  <si>
+    <t>cwl_subclass_match_stacks</t>
+  </si>
+  <si>
+    <t>cwl_stacks_generated</t>
+  </si>
+  <si>
+    <t>cwl_stacks_consumed</t>
+  </si>
+  <si>
+    <t>actually_works</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>elemental wells</t>
   </si>
   <si>
@@ -1158,6 +1182,93 @@
   </si>
   <si>
     <t>grenade energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well duration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff duration </t>
+  </si>
+  <si>
+    <t>lowest ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage </t>
+  </si>
+  <si>
+    <t>increased melee damage (30%) duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increased damage reduction (50%) duration </t>
+  </si>
+  <si>
+    <t>increased damage (25%) duration</t>
+  </si>
+  <si>
+    <t>increased super regen</t>
+  </si>
+  <si>
+    <t>gain charged with light</t>
+  </si>
+  <si>
+    <t>if collect well of same sub-class element, gain 2 stacks</t>
+  </si>
+  <si>
+    <t>elemental wells chance</t>
+  </si>
+  <si>
+    <t>rank and file</t>
+  </si>
+  <si>
+    <t>elites</t>
+  </si>
+  <si>
+    <t>regen 13HP/s</t>
+  </si>
+  <si>
+    <t>orb of power</t>
+  </si>
+  <si>
+    <t>50% Damage Resist when critical for time</t>
+  </si>
+  <si>
+    <t>increased rocket launcher damage</t>
+  </si>
+  <si>
+    <t>increased rocket launcher reload speed</t>
+  </si>
+  <si>
+    <t>{34,41}</t>
+  </si>
+  <si>
+    <t>allows additional charged with light</t>
+  </si>
+  <si>
+    <t>heal max health</t>
+  </si>
+  <si>
+    <t>25% Max Health per copy.</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>produces special ammo box</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>intellect</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>increased damage</t>
   </si>
 </sst>
 </file>
@@ -1211,6 +1322,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5656,6 +5779,12 @@
       <c r="B129" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E129" s="1" t="s">
         <v>194</v>
       </c>
@@ -5683,6 +5812,12 @@
       <c r="B130" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>69</v>
       </c>
@@ -5707,6 +5842,12 @@
       <c r="B131" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="C131" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E131" s="1" t="s">
         <v>207</v>
       </c>
@@ -5731,6 +5872,12 @@
       <c r="B132" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>69</v>
       </c>
@@ -5755,6 +5902,12 @@
       <c r="B133" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>194</v>
       </c>
@@ -5779,6 +5932,12 @@
       <c r="B134" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E134" s="1" t="s">
         <v>207</v>
       </c>
@@ -5803,6 +5962,12 @@
       <c r="B135" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="C135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E135" s="1" t="s">
         <v>178</v>
       </c>
@@ -5827,6 +5992,12 @@
       <c r="B136" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="C136" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E136" s="1" t="s">
         <v>194</v>
       </c>
@@ -5851,6 +6022,12 @@
       <c r="B137" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>178</v>
       </c>
@@ -5875,6 +6052,12 @@
       <c r="B138" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E138" s="1" t="s">
         <v>194</v>
       </c>
@@ -5899,6 +6082,12 @@
       <c r="B139" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="C139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E139" s="1" t="s">
         <v>194</v>
       </c>
@@ -5923,6 +6112,12 @@
       <c r="B140" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E140" s="1" t="s">
         <v>69</v>
       </c>
@@ -5947,6 +6142,12 @@
       <c r="B141" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>207</v>
       </c>
@@ -5971,6 +6172,12 @@
       <c r="B142" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E142" s="1" t="s">
         <v>194</v>
       </c>
@@ -5995,6 +6202,12 @@
       <c r="B143" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>207</v>
       </c>
@@ -6019,6 +6232,12 @@
       <c r="B144" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E144" s="1" t="s">
         <v>207</v>
       </c>
@@ -6043,6 +6262,12 @@
       <c r="B145" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>178</v>
       </c>
@@ -6067,6 +6292,12 @@
       <c r="B146" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="C146" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E146" s="1" t="s">
         <v>69</v>
       </c>
@@ -6091,6 +6322,12 @@
       <c r="B147" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="C147" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>207</v>
       </c>
@@ -6115,6 +6352,12 @@
       <c r="B148" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="C148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E148" s="1" t="s">
         <v>207</v>
       </c>
@@ -6139,6 +6382,12 @@
       <c r="B149" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="C149" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>178</v>
       </c>
@@ -6163,6 +6412,12 @@
       <c r="B150" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="C150" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E150" s="1" t="s">
         <v>194</v>
       </c>
@@ -6187,6 +6442,12 @@
       <c r="B151" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>69</v>
       </c>
@@ -6211,6 +6472,12 @@
       <c r="B152" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="C152" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E152" s="1" t="s">
         <v>178</v>
       </c>
@@ -6235,6 +6502,12 @@
       <c r="B153" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>194</v>
       </c>
@@ -6259,6 +6532,12 @@
       <c r="B154" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E154" s="1" t="s">
         <v>207</v>
       </c>
@@ -6283,6 +6562,12 @@
       <c r="B155" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>69</v>
       </c>
@@ -6307,6 +6592,12 @@
       <c r="B156" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
@@ -6331,6 +6622,12 @@
       <c r="B157" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E157" s="1" t="s">
         <v>207</v>
       </c>
@@ -6355,6 +6652,12 @@
       <c r="B158" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="C158" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E158" s="1" t="s">
         <v>340</v>
       </c>
@@ -6382,6 +6685,12 @@
       <c r="B159" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>69</v>
       </c>
@@ -6406,6 +6715,12 @@
       <c r="B160" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="C160" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E160" s="1" t="s">
         <v>207</v>
       </c>
@@ -6430,6 +6745,12 @@
       <c r="B161" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>178</v>
       </c>
@@ -6454,6 +6775,12 @@
       <c r="B162" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="C162" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E162" s="1" t="s">
         <v>178</v>
       </c>
@@ -6478,6 +6805,12 @@
       <c r="B163" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="C163" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E163" s="1" t="s">
         <v>194</v>
       </c>
@@ -6502,6 +6835,12 @@
       <c r="B164" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="C164" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E164" s="1" t="s">
         <v>178</v>
       </c>
@@ -6526,6 +6865,12 @@
       <c r="B165" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="C165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>194</v>
       </c>
@@ -6550,6 +6895,12 @@
       <c r="B166" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="C166" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E166" s="1" t="s">
         <v>69</v>
       </c>
@@ -6574,6 +6925,12 @@
       <c r="B167" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="C167" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E167" s="1" t="s">
         <v>178</v>
       </c>
@@ -6598,6 +6955,12 @@
       <c r="B168" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="C168" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E168" s="1" t="s">
         <v>178</v>
       </c>
@@ -6622,6 +6985,12 @@
       <c r="B169" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E169" s="1" t="s">
         <v>178</v>
       </c>
@@ -6646,6 +7015,12 @@
       <c r="B170" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="C170" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E170" s="1" t="s">
         <v>178</v>
       </c>
@@ -6669,6 +7044,12 @@
       </c>
       <c r="B171" s="1" t="s">
         <v>366</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>178</v>
@@ -6697,16 +7078,20 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.0"/>
-    <col customWidth="1" min="4" max="4" width="17.88"/>
-    <col customWidth="1" min="5" max="5" width="7.0"/>
-    <col customWidth="1" min="6" max="6" width="10.13"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="11.5"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="10.25"/>
+    <col customWidth="1" min="9" max="9" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6737,6 +7122,27 @@
       <c r="I1" s="1" t="s">
         <v>375</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -6745,23 +7151,41 @@
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>376</v>
+      <c r="C2" s="1">
+        <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
+        <v>383</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.0</v>
       </c>
       <c r="H2" s="1">
         <v>0.0</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -6771,22 +7195,40 @@
       <c r="B3" s="1">
         <v>3.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>378</v>
+      <c r="C3" s="1">
+        <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10.0</v>
+        <v>385</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F3" s="1">
         <v>10.0</v>
       </c>
+      <c r="G3" s="1">
+        <v>10.0</v>
+      </c>
       <c r="H3" s="1">
         <v>0.0</v>
       </c>
       <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6797,22 +7239,40 @@
       <c r="B4" s="1">
         <v>3.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>378</v>
+      <c r="C4" s="1">
+        <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" s="1">
+        <v>385</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="1">
         <v>14.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>4.6</v>
       </c>
       <c r="H4" s="1">
         <v>0.0</v>
       </c>
       <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6823,22 +7283,40 @@
       <c r="B5" s="1">
         <v>3.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>378</v>
+      <c r="C5" s="1">
+        <v>2.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="1">
+        <v>385</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="1">
         <v>17.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2.4</v>
       </c>
       <c r="H5" s="1">
         <v>0.0</v>
       </c>
       <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6849,22 +7327,40 @@
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>378</v>
+      <c r="C6" s="1">
+        <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="1">
+        <v>385</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="1">
         <v>19.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2.6</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
       </c>
       <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6875,22 +7371,40 @@
       <c r="B7" s="1">
         <v>4.0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>380</v>
+      <c r="C7" s="1">
+        <v>3.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10.0</v>
+        <v>387</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F7" s="1">
         <v>10.0</v>
       </c>
+      <c r="G7" s="1">
+        <v>10.0</v>
+      </c>
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
       <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6901,22 +7415,40 @@
       <c r="B8" s="1">
         <v>4.0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>380</v>
+      <c r="C8" s="1">
+        <v>3.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E8" s="1">
+        <v>387</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="1">
         <v>14.6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>4.6</v>
       </c>
       <c r="H8" s="1">
         <v>0.0</v>
       </c>
       <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6927,22 +7459,40 @@
       <c r="B9" s="1">
         <v>4.0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>380</v>
+      <c r="C9" s="1">
+        <v>3.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E9" s="1">
+        <v>387</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="1">
         <v>17.0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>2.4</v>
       </c>
       <c r="H9" s="1">
         <v>0.0</v>
       </c>
       <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6953,22 +7503,40 @@
       <c r="B10" s="1">
         <v>4.0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>380</v>
+      <c r="C10" s="1">
+        <v>3.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E10" s="1">
+        <v>387</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="1">
         <v>19.6</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2.6</v>
       </c>
       <c r="H10" s="1">
         <v>0.0</v>
       </c>
       <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -6979,25 +7547,40 @@
       <c r="B11" s="1">
         <v>5.0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>376</v>
+      <c r="C11" s="1">
+        <v>1.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0</v>
+        <v>383</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="1">
         <v>0.0</v>
       </c>
       <c r="I11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7008,17 +7591,17 @@
       <c r="B12" s="1">
         <v>5.0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>376</v>
+      <c r="C12" s="1">
+        <v>1.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
+        <v>383</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F12" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="1">
         <v>1.0</v>
@@ -7027,6 +7610,21 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7037,17 +7635,17 @@
       <c r="B13" s="1">
         <v>5.0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>376</v>
+      <c r="C13" s="1">
+        <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
+        <v>383</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F13" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -7056,6 +7654,21 @@
         <v>1.0</v>
       </c>
       <c r="I13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7066,17 +7679,17 @@
       <c r="B14" s="1">
         <v>5.0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>376</v>
+      <c r="C14" s="1">
+        <v>1.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0</v>
+        <v>383</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="1">
         <v>1.0</v>
@@ -7085,6 +7698,21 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7095,17 +7723,17 @@
       <c r="B15" s="1">
         <v>5.0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>376</v>
+      <c r="C15" s="1">
+        <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
+        <v>383</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="F15" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
@@ -7114,6 +7742,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7124,22 +7767,40 @@
       <c r="B16" s="1">
         <v>6.0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>381</v>
+      <c r="C16" s="1">
+        <v>4.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10.0</v>
+        <v>388</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F16" s="1">
         <v>10.0</v>
       </c>
+      <c r="G16" s="1">
+        <v>10.0</v>
+      </c>
       <c r="H16" s="1">
         <v>0.0</v>
       </c>
       <c r="I16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7150,22 +7811,40 @@
       <c r="B17" s="1">
         <v>6.0</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>381</v>
+      <c r="C17" s="1">
+        <v>4.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" s="1">
+        <v>388</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="1">
         <v>14.6</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>4.6</v>
       </c>
       <c r="H17" s="1">
         <v>0.0</v>
       </c>
       <c r="I17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7176,22 +7855,40 @@
       <c r="B18" s="1">
         <v>6.0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>381</v>
+      <c r="C18" s="1">
+        <v>4.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" s="1">
+        <v>388</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="1">
         <v>17.0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2.4</v>
       </c>
       <c r="H18" s="1">
         <v>0.0</v>
       </c>
       <c r="I18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -7202,23 +7899,5312 @@
       <c r="B19" s="1">
         <v>6.0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-15.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F38" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F53" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F56" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F57" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="10.25"/>
+    <col customWidth="1" min="9" max="9" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11.0</v>
+      </c>
       <c r="D19" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F31" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F58" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F64" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="10.25"/>
+    <col customWidth="1" min="9" max="9" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E19" s="1">
-        <v>19.6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.0</v>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="8" max="8" width="10.25"/>
+    <col customWidth="1" min="9" max="9" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/Mods and Synergy.xlsx
+++ b/mappings/Mods and Synergy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="420">
   <si>
     <t>ID</t>
   </si>
@@ -1269,6 +1269,12 @@
   </si>
   <si>
     <t>increased damage</t>
+  </si>
+  <si>
+    <t>25% damage resist while sprinting</t>
+  </si>
+  <si>
+    <t>gain super energy</t>
   </si>
 </sst>
 </file>
@@ -1288,12 +1294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1302,11 +1314,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7086,6 +7102,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.0"/>
+    <col customWidth="1" min="3" max="3" width="9.38"/>
     <col customWidth="1" min="4" max="4" width="19.0"/>
     <col customWidth="1" min="5" max="5" width="10.88"/>
     <col customWidth="1" min="6" max="6" width="7.0"/>
@@ -9167,180 +9184,242 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>18.0</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>11.0</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="F50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
     </row>
     <row r="51">
-      <c r="B51" s="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3">
         <v>18.0</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>11.0</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>2.0</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
+      <c r="G51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
     </row>
     <row r="52">
-      <c r="B52" s="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3">
         <v>19.0</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>12.0</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>14.0</v>
       </c>
-      <c r="G52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
+      <c r="G52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
     </row>
     <row r="53">
-      <c r="B53" s="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3">
         <v>19.0</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>12.0</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>34.0</v>
       </c>
-      <c r="G53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
+      <c r="G53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
     </row>
     <row r="54">
       <c r="B54" s="1">
@@ -10386,6 +10465,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.0"/>
+    <col customWidth="1" min="3" max="3" width="8.88"/>
     <col customWidth="1" min="4" max="4" width="19.0"/>
     <col customWidth="1" min="5" max="5" width="10.88"/>
     <col customWidth="1" min="6" max="6" width="7.0"/>
@@ -13051,6 +13131,368 @@
       </c>
       <c r="N64" s="1">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F69" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F71" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
